--- a/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 16,23</t>
+          <t>-10,0; 13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 18,14</t>
+          <t>-10,47; 15,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 105,12</t>
+          <t>-29,67; 76,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 134,93</t>
+          <t>-30,51; 96,07</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>68,97%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 23,17</t>
+          <t>3,6; 25,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 21,92</t>
+          <t>2,09; 22,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,72; 157,1</t>
+          <t>16,08; 191,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 148,39</t>
+          <t>7,75; 169,67</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>206,94%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 18,34</t>
+          <t>-16,67; 26,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 28,25</t>
+          <t>-0,13; 35,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 125,19</t>
+          <t>-52,51; 404,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 306,28</t>
+          <t>-27,54; 1466,41</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>52,88%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,42</t>
+          <t>0,14; 15,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 17,93</t>
+          <t>-0,19; 16,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 91,1</t>
+          <t>-0,54; 88,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 120,49</t>
+          <t>-4,7; 104,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,32%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.650316636404682</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.516674794631019</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.152450489216902</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.4478967213511386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,0; 13,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 15,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-29,67; 76,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,51; 96,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.996843714126721</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.752928601367261</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2966565599398406</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2225192155149613</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.15416918967778</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.67893311844657</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.7650044238997586</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.220230712466263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>76,41%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>68,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 25,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 22,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,08; 191,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 169,67</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.07655220767627</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.05175761365825</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.7640515224498359</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6066171046472494</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,09%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>206,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.59630124728181</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.01454093095690529</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.1607730883728307</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02585872501650138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,67; 26,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 35,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-52,51; 404,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,54; 1466,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.27941125719543</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.60002118651466</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.9155567714766</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.604366372527657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>37,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>52,88%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.52166559826155</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.46754215441552</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.1708600930686887</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.687085346260405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 15,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 16,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 88,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 104,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.67135867605787</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.707262298201816</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5250728401196511</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3772510469529879</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.42408766870841</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>34.26015202870597</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>4.043079757293657</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>12.99433811642504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.900942017966472</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.27670947898726</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3701948645363754</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.578515566169703</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1382278475162728</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.649122729120277</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.005445425453920465</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.05332781150064982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.11154264326664</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.32356331498089</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8813800335715949</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.130190390822661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
